--- a/merge_xlsx/tests/fixtures/template.xlsx
+++ b/merge_xlsx/tests/fixtures/template.xlsx
@@ -72,7 +72,7 @@
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
     <numFmt numFmtId="167" formatCode="0\°"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,6 +129,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -305,7 +310,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -338,6 +343,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -432,11 +438,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45805179"/>
-        <c:axId val="28577612"/>
+        <c:axId val="12489693"/>
+        <c:axId val="2335961"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45805179"/>
+        <c:axId val="12489693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,14 +473,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28577612"/>
+        <c:crossAx val="2335961"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28577612"/>
+        <c:axId val="2335961"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +521,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45805179"/>
+        <c:crossAx val="12489693"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -563,9 +569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -573,8 +579,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1477080" y="5027040"/>
-        <a:ext cx="9120600" cy="2743200"/>
+        <a:off x="1476720" y="5027040"/>
+        <a:ext cx="9118440" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -593,13 +599,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>592560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>592200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="36 Imagen" descr=""/>
+        <xdr:cNvPr id="1" name="Imagen C11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -608,8 +614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2360880" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="2360160" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,13 +636,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590040</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>589680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="37 Imagen" descr=""/>
+        <xdr:cNvPr id="2" name="Imagen D11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -645,8 +651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3204720" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="3203280" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -667,13 +673,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>596880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="38 Imagen" descr=""/>
+        <xdr:cNvPr id="3" name="Imagen E11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -682,8 +688,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048920" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="4047480" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -704,13 +710,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>595080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>594720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="39 Imagen" descr=""/>
+        <xdr:cNvPr id="4" name="Imagen F11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -719,8 +725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4893120" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="4891320" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -741,13 +747,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>601560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="40 Imagen" descr=""/>
+        <xdr:cNvPr id="5" name="Imagen G11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -756,8 +762,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5736960" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="5734800" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -778,13 +784,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="41 Imagen" descr=""/>
+        <xdr:cNvPr id="6" name="Imagen H11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -793,8 +799,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581160" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="6579360" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -815,13 +821,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>616680</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>616320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="42 Imagen" descr=""/>
+        <xdr:cNvPr id="7" name="Imagen I11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -830,8 +836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7425360" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="7423560" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,13 +858,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>623520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="43 Imagen" descr=""/>
+        <xdr:cNvPr id="8" name="Imagen J11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -867,8 +873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8269560" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="8267760" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,13 +895,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>630360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="44 Imagen" descr=""/>
+        <xdr:cNvPr id="9" name="Imagen K11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -904,8 +910,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9113400" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="9111600" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -926,13 +932,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>637560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>597240</xdr:rowOff>
+      <xdr:colOff>637200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>596880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="45 Imagen" descr=""/>
+        <xdr:cNvPr id="10" name="Imagen L11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -941,8 +947,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9957240" y="1964880"/>
-          <a:ext cx="506880" cy="506880"/>
+          <a:off x="9955080" y="1964880"/>
+          <a:ext cx="506520" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,13 +969,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
+      <xdr:colOff>359280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 1" descr=""/>
+        <xdr:cNvPr id="11" name="Image logo" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -979,7 +985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="247320" y="123480"/>
-          <a:ext cx="2387520" cy="738000"/>
+          <a:ext cx="2386440" cy="737640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,18 +1008,18 @@
   <dimension ref="B1:O23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
